--- a/data/trans_dic/P20D2_R_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P20D2_R_2023-Estudios-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.5298888808957931</v>
+        <v>0.5298888808957932</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.5843910570166068</v>
+        <v>0.5843910570166067</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.5537457633633315</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3279777145297965</v>
+        <v>0.3241190362204131</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3647416215908749</v>
+        <v>0.3918208356683141</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4031832613516688</v>
+        <v>0.4173494757491468</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7215051688579645</v>
+        <v>0.7399857706076016</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7509018971601822</v>
+        <v>0.7652606800805989</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6880960126736523</v>
+        <v>0.6960242856952628</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7602677791803782</v>
+        <v>0.7602677791803784</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.3830022286749666</v>
+        <v>0.3830022286749667</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.5859812790351318</v>
+        <v>0.5859812790351319</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6089978437034506</v>
+        <v>0.5954853147646417</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2393034867080502</v>
+        <v>0.2270744849597401</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4683756206987497</v>
+        <v>0.4744992451231411</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8794038646544237</v>
+        <v>0.8773592237371206</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6138543169734348</v>
+        <v>0.6035358229453248</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6981116886600681</v>
+        <v>0.7049474504055326</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5603216536185676</v>
+        <v>0.490606701588932</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03803614650866106</v>
+        <v>0.03997658856040653</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3646143118285498</v>
+        <v>0.3607588681018468</v>
       </c>
     </row>
     <row r="12">
@@ -711,10 +711,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4049458176808493</v>
+        <v>0.4646762118972502</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7571755948330876</v>
+        <v>0.7711127489215296</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.718098202446821</v>
+        <v>0.7180982024468212</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.4013704700236115</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5990664494158288</v>
+        <v>0.6105251459813292</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2864781625046348</v>
+        <v>0.2906477660485164</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4884492565397571</v>
+        <v>0.4947722880511274</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8077131969672614</v>
+        <v>0.8148163878618275</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5411638113045697</v>
+        <v>0.5464556997752053</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6562138999033524</v>
+        <v>0.6583722632482973</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6383</v>
+        <v>6308</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5526</v>
+        <v>5936</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>13955</v>
+        <v>14445</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14041</v>
+        <v>14401</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11376</v>
+        <v>11594</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23816</v>
+        <v>24090</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>22870</v>
+        <v>22362</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7716</v>
+        <v>7322</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>32692</v>
+        <v>33119</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>33024</v>
+        <v>32947</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19794</v>
+        <v>19461</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>48727</v>
+        <v>49204</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6269</v>
+        <v>5489</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7483</v>
+        <v>7404</v>
       </c>
     </row>
     <row r="15">
@@ -1074,10 +1074,10 @@
         <v>11188</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3781</v>
+        <v>4338</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15540</v>
+        <v>15826</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>40858</v>
+        <v>41639</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>16252</v>
+        <v>16489</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>61023</v>
+        <v>61813</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>55088</v>
+        <v>55572</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>30701</v>
+        <v>31001</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>81983</v>
+        <v>82252</v>
       </c>
     </row>
     <row r="20">
